--- a/data/trans_orig/IPAQ_MET-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>145302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124668</v>
+        <v>121186</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>171106</v>
+        <v>169635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1288138439548192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1105218227227694</v>
+        <v>0.1074344149891456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1516897315126203</v>
+        <v>0.150385965739073</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -763,19 +763,19 @@
         <v>59224</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45388</v>
+        <v>46066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75610</v>
+        <v>75921</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04701973965474965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03603441770171532</v>
+        <v>0.03657326784820295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06002899170184272</v>
+        <v>0.06027608442503173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>197</v>
@@ -784,19 +784,19 @@
         <v>204526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>178831</v>
+        <v>178727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>235060</v>
+        <v>233850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08566320845869985</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0749010983256258</v>
+        <v>0.07485773776069304</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0984520054159886</v>
+        <v>0.09794539961250148</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>540722</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>507433</v>
+        <v>506594</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>576189</v>
+        <v>572583</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4793646782302297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4498529531143021</v>
+        <v>0.4491091445124761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5108072887165351</v>
+        <v>0.5076102573773458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>565</v>
@@ -834,19 +834,19 @@
         <v>587255</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>553962</v>
+        <v>553350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>624908</v>
+        <v>625067</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4662378855458046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4398056515671005</v>
+        <v>0.4393194229328441</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.496131482071106</v>
+        <v>0.4962575119103255</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1072</v>
@@ -855,19 +855,19 @@
         <v>1127977</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1079658</v>
+        <v>1080476</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1175127</v>
+        <v>1177052</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4724396137502673</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4522019669465822</v>
+        <v>0.4525443691809642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4921876895972576</v>
+        <v>0.4929938888505588</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>441973</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>408869</v>
+        <v>411105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>474400</v>
+        <v>477443</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3918214778149512</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3624735719952399</v>
+        <v>0.3644555458990601</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4205685983352351</v>
+        <v>0.4232659024268164</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>565</v>
@@ -905,19 +905,19 @@
         <v>613082</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>575452</v>
+        <v>576139</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>646105</v>
+        <v>649202</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4867423747994458</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4568671645304376</v>
+        <v>0.4574123135460808</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5129603947969532</v>
+        <v>0.5154193763663456</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>985</v>
@@ -926,19 +926,19 @@
         <v>1055055</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1007769</v>
+        <v>1002572</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1104863</v>
+        <v>1102584</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4418971777910329</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4220917624419634</v>
+        <v>0.4199153995882026</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4627587441044951</v>
+        <v>0.4618038697121675</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>136675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>117097</v>
+        <v>115073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>159088</v>
+        <v>158615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1503861453859411</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1288447132286844</v>
+        <v>0.1266170624306937</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1750482444282158</v>
+        <v>0.1745272213544388</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1051,19 +1051,19 @@
         <v>57590</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44221</v>
+        <v>44090</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72807</v>
+        <v>72953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05721902296492172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04393690711538593</v>
+        <v>0.04380618167113515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07233818235876327</v>
+        <v>0.0724836751792747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>187</v>
@@ -1072,19 +1072,19 @@
         <v>194264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>168482</v>
+        <v>169577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>224067</v>
+        <v>222151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1014275470054178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08796619507216352</v>
+        <v>0.08853811127046532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1169878406648295</v>
+        <v>0.1159874478426995</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>463323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>434617</v>
+        <v>432907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>496326</v>
+        <v>494879</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5098041501992847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4782183877953259</v>
+        <v>0.476337030789531</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5461181987430219</v>
+        <v>0.5445258143262037</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>470</v>
@@ -1122,19 +1122,19 @@
         <v>488328</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>456048</v>
+        <v>457459</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>521856</v>
+        <v>522817</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.485186047018537</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4531141254492136</v>
+        <v>0.4545159580168798</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5184992077853732</v>
+        <v>0.5194539240806185</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>920</v>
@@ -1143,19 +1143,19 @@
         <v>951650</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>908678</v>
+        <v>907528</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>996845</v>
+        <v>994972</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4968675284039915</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4744313338641282</v>
+        <v>0.4738309802382951</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.520463985951373</v>
+        <v>0.5194862541281996</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>308828</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>279696</v>
+        <v>278921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339142</v>
+        <v>338359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3398097044147741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3077557641071849</v>
+        <v>0.3069025460484433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3731652248454122</v>
+        <v>0.3723039962624839</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>424</v>
@@ -1193,19 +1193,19 @@
         <v>460558</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>427288</v>
+        <v>425521</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>493870</v>
+        <v>492787</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4575949300165413</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4245391934392314</v>
+        <v>0.4227834542078052</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4906924285607954</v>
+        <v>0.489617124514015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>725</v>
@@ -1214,19 +1214,19 @@
         <v>769385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>728065</v>
+        <v>724982</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>813046</v>
+        <v>813403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4017049245905908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3801309614878505</v>
+        <v>0.3785215033768636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4245006850193003</v>
+        <v>0.4246871851759027</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>103294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83360</v>
+        <v>85062</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>122317</v>
+        <v>123826</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1253930358514954</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1011947686838805</v>
+        <v>0.1032601818754857</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1484869773673973</v>
+        <v>0.1503180950659708</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -1339,19 +1339,19 @@
         <v>39158</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27070</v>
+        <v>27945</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53389</v>
+        <v>52972</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05078442676204978</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03510695398526096</v>
+        <v>0.03624225466648377</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06924105926762081</v>
+        <v>0.06870023033164446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>134</v>
@@ -1360,19 +1360,19 @@
         <v>142451</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>120686</v>
+        <v>120170</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167525</v>
+        <v>167045</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08932144822070362</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07567375941585396</v>
+        <v>0.07535016580553325</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1050434373286074</v>
+        <v>0.1047426630753077</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>426839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>396936</v>
+        <v>398716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>457614</v>
+        <v>455924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5181596973898027</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.481859683599008</v>
+        <v>0.484020313756042</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5555196524436886</v>
+        <v>0.5534676815477675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>356</v>
@@ -1410,19 +1410,19 @@
         <v>376401</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>349892</v>
+        <v>347424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>403593</v>
+        <v>406854</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.48816126370904</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4537808218699612</v>
+        <v>0.4505801795703361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5234262325808968</v>
+        <v>0.5276561123788569</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>762</v>
@@ -1431,19 +1431,19 @@
         <v>803240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>765454</v>
+        <v>760387</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>843365</v>
+        <v>840941</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5036561281300562</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4799631948734022</v>
+        <v>0.4767861663926548</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5288157130269001</v>
+        <v>0.5272956227055177</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>293627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265416</v>
+        <v>267359</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321704</v>
+        <v>321960</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3564472667587019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3222012526458525</v>
+        <v>0.3245598782564876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3905322329881301</v>
+        <v>0.3908424823471086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>335</v>
@@ -1481,19 +1481,19 @@
         <v>355500</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327613</v>
+        <v>326402</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>382463</v>
+        <v>385523</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4610543095289102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4248867400422006</v>
+        <v>0.4233164659487139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4960235533997339</v>
+        <v>0.4999914465248118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>619</v>
@@ -1502,19 +1502,19 @@
         <v>649127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>611333</v>
+        <v>611565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>686431</v>
+        <v>688621</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4070224236492402</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3833244604122031</v>
+        <v>0.3834703277551195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4304135067236568</v>
+        <v>0.4317866051314583</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>87116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71654</v>
+        <v>70355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105161</v>
+        <v>104643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1719285959479638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1414124910747641</v>
+        <v>0.138848845586052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2075405354116945</v>
+        <v>0.206517748359806</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1627,19 +1627,19 @@
         <v>39569</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28682</v>
+        <v>29251</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52755</v>
+        <v>53156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08080354805418322</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05857136399555465</v>
+        <v>0.05973288166472188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1077298114027096</v>
+        <v>0.1085495451432634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -1648,19 +1648,19 @@
         <v>126686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105364</v>
+        <v>106070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148534</v>
+        <v>148811</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1271435877748421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.105744997999985</v>
+        <v>0.106453632772807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1490711120099481</v>
+        <v>0.1493487686945947</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>261165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>239073</v>
+        <v>238315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>284499</v>
+        <v>284386</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5154226973657141</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4718227245889269</v>
+        <v>0.4703270643925472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5614738579333551</v>
+        <v>0.5612491649206299</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>234</v>
@@ -1698,19 +1698,19 @@
         <v>250687</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>228726</v>
+        <v>226041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>273247</v>
+        <v>272616</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5119224043564107</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.467075716193198</v>
+        <v>0.4615934436121527</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5579903462490089</v>
+        <v>0.5567016034923398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>474</v>
@@ -1719,19 +1719,19 @@
         <v>511852</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>482317</v>
+        <v>479998</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>549098</v>
+        <v>544369</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5137024167770806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4840604932379568</v>
+        <v>0.4817328946367211</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5510829405871105</v>
+        <v>0.5463371861788561</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>158419</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>138453</v>
+        <v>139014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>180165</v>
+        <v>180068</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.312648706686322</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.273244387303398</v>
+        <v>0.2743517010341091</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3555645988848353</v>
+        <v>0.3553728154122966</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>183</v>
@@ -1769,19 +1769,19 @@
         <v>199441</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>177134</v>
+        <v>178427</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>221305</v>
+        <v>222853</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4072740475894061</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3617213113812079</v>
+        <v>0.3643619617358276</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4519217181111893</v>
+        <v>0.4550819553336192</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>334</v>
@@ -1790,19 +1790,19 @@
         <v>357860</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>326193</v>
+        <v>324114</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>388534</v>
+        <v>388334</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3591539954480773</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3273726252169825</v>
+        <v>0.3252853397811374</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3899384787606301</v>
+        <v>0.389737555342027</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>472386</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>430920</v>
+        <v>432551</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>514522</v>
+        <v>512805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1402871330655184</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1279726404022683</v>
+        <v>0.1284570487894067</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1528004855288672</v>
+        <v>0.152290436936642</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -1915,19 +1915,19 @@
         <v>195541</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>170788</v>
+        <v>166932</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>225731</v>
+        <v>223823</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05544438355296533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04842574931337704</v>
+        <v>0.04733243738842555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06400459337808072</v>
+        <v>0.06346358094998923</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>636</v>
@@ -1936,19 +1936,19 @@
         <v>667927</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>617754</v>
+        <v>616859</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>719552</v>
+        <v>716196</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09688424326623629</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08960655762073504</v>
+        <v>0.0894766641468687</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1043724836596347</v>
+        <v>0.1038856908713219</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>1692049</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1631463</v>
+        <v>1625911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1754626</v>
+        <v>1746211</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5024968459150398</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4845045447985104</v>
+        <v>0.482855534606346</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5210806592020695</v>
+        <v>0.5185816153601135</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1625</v>
@@ -1986,19 +1986,19 @@
         <v>1702671</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1641026</v>
+        <v>1646452</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1766249</v>
+        <v>1764472</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4827817192218252</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4653028300406228</v>
+        <v>0.4668412542080232</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5008089661477029</v>
+        <v>0.5003050543298871</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3228</v>
@@ -2007,19 +2007,19 @@
         <v>3394720</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3312297</v>
+        <v>3309694</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3484831</v>
+        <v>3475413</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4924112054076224</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4804555969075066</v>
+        <v>0.4800780204342124</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5054820576539479</v>
+        <v>0.5041158666736715</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>1202847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1142858</v>
+        <v>1144877</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1260008</v>
+        <v>1256307</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3572160210194417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3394007284503004</v>
+        <v>0.3400002546063444</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3741912793843837</v>
+        <v>0.3730922872715081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1507</v>
@@ -2057,19 +2057,19 @@
         <v>1628580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1567890</v>
+        <v>1570315</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1691304</v>
+        <v>1688205</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4617738972252095</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4445656080608275</v>
+        <v>0.4452531142149619</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4795588461556202</v>
+        <v>0.478679935831849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2663</v>
@@ -2078,19 +2078,19 @@
         <v>2831428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2744693</v>
+        <v>2753454</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2915329</v>
+        <v>2920260</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4107045513261413</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3981235148422706</v>
+        <v>0.3993943264036771</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4228745794925162</v>
+        <v>0.4235898496051656</v>
       </c>
     </row>
     <row r="23">
@@ -2422,19 +2422,19 @@
         <v>87074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67972</v>
+        <v>69736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105826</v>
+        <v>110078</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1745879814264901</v>
+        <v>0.17458798142649</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1362886445045654</v>
+        <v>0.1398244840036162</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2121870470377619</v>
+        <v>0.2207125470085729</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -2443,19 +2443,19 @@
         <v>73894</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60756</v>
+        <v>60955</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90290</v>
+        <v>88453</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1184993167487363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09743077258297127</v>
+        <v>0.09775001444951398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1447927800272725</v>
+        <v>0.1418473795612734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -2464,19 +2464,19 @@
         <v>160968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>137600</v>
+        <v>138662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>185056</v>
+        <v>188555</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1434241450973879</v>
+        <v>0.143424145097388</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1226032621345594</v>
+        <v>0.123548987868787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1648868192748688</v>
+        <v>0.1680050251072977</v>
       </c>
     </row>
     <row r="5">
@@ -2493,19 +2493,19 @@
         <v>210937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>185529</v>
+        <v>187336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>235543</v>
+        <v>236787</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4229405137147219</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3719970222614233</v>
+        <v>0.3756197111896347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4722761375160028</v>
+        <v>0.4747720101513375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>337</v>
@@ -2514,19 +2514,19 @@
         <v>265324</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>242747</v>
+        <v>242206</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>287762</v>
+        <v>287036</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4254852797718448</v>
+        <v>0.4254852797718449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3892802497622669</v>
+        <v>0.388411708182413</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4614669182751324</v>
+        <v>0.4603027828320445</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>525</v>
@@ -2535,19 +2535,19 @@
         <v>476261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443319</v>
+        <v>443704</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>512623</v>
+        <v>513768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4243544299374679</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.395002293596623</v>
+        <v>0.395345648318245</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4567527580949338</v>
+        <v>0.457773195926967</v>
       </c>
     </row>
     <row r="6">
@@ -2564,19 +2564,19 @@
         <v>200728</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178094</v>
+        <v>177212</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>224596</v>
+        <v>225681</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4024715048587881</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3570876589669861</v>
+        <v>0.3553203575904956</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4503280823992418</v>
+        <v>0.4525023277482128</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>424</v>
@@ -2585,19 +2585,19 @@
         <v>284362</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>263799</v>
+        <v>262166</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>307808</v>
+        <v>309108</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4560154034794188</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4230401659412336</v>
+        <v>0.4204213258587147</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.493613591576386</v>
+        <v>0.4956986290297077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>617</v>
@@ -2606,19 +2606,19 @@
         <v>485091</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>450631</v>
+        <v>452966</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>520538</v>
+        <v>518816</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4322214249651442</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4015177374331981</v>
+        <v>0.403598188000115</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4638056150103858</v>
+        <v>0.4622710344360167</v>
       </c>
     </row>
     <row r="7">
@@ -2710,19 +2710,19 @@
         <v>190754</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164103</v>
+        <v>160814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>219878</v>
+        <v>219002</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1986732963802358</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1709159321845395</v>
+        <v>0.1674902428823144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2290070253836243</v>
+        <v>0.2280940983701358</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -2731,19 +2731,19 @@
         <v>107213</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91310</v>
+        <v>91312</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>126566</v>
+        <v>127136</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09608230555727394</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08183023357206423</v>
+        <v>0.08183174844704212</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1134254356116469</v>
+        <v>0.1139367404784608</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>307</v>
@@ -2752,19 +2752,19 @@
         <v>297967</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>266355</v>
+        <v>263479</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>332386</v>
+        <v>331146</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1435303006804244</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1283028068194025</v>
+        <v>0.1269177162500818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1601101060891547</v>
+        <v>0.1595125252520557</v>
       </c>
     </row>
     <row r="9">
@@ -2781,19 +2781,19 @@
         <v>444381</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>408359</v>
+        <v>410655</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>481595</v>
+        <v>480211</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4628310647483211</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4253132490973391</v>
+        <v>0.4277048752018645</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5015903743833657</v>
+        <v>0.5001484973781394</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>755</v>
@@ -2802,19 +2802,19 @@
         <v>537822</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>507938</v>
+        <v>509073</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>566203</v>
+        <v>567889</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4819848186345813</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4552029402293457</v>
+        <v>0.4562199110022657</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5074190225647084</v>
+        <v>0.5089295792371301</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1185</v>
@@ -2823,19 +2823,19 @@
         <v>982204</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>937735</v>
+        <v>939198</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1028447</v>
+        <v>1028152</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4731262705915704</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4517060189241622</v>
+        <v>0.4524105340717828</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4954015070814475</v>
+        <v>0.4952598077607599</v>
       </c>
     </row>
     <row r="10">
@@ -2852,19 +2852,19 @@
         <v>325002</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>291688</v>
+        <v>292886</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>356271</v>
+        <v>357223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3384956388714431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.303798768935531</v>
+        <v>0.3050455522331423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3710623442474552</v>
+        <v>0.3720540071032305</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>704</v>
@@ -2873,19 +2873,19 @@
         <v>470813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>440014</v>
+        <v>440435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>499147</v>
+        <v>500478</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4219328758081447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3943308016153522</v>
+        <v>0.3947082073573746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4473245321050542</v>
+        <v>0.4485177442040455</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1025</v>
@@ -2894,19 +2894,19 @@
         <v>795816</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>759539</v>
+        <v>753005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>844527</v>
+        <v>839065</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3833434287280053</v>
+        <v>0.3833434287280052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3658689897641281</v>
+        <v>0.3627216799574484</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.40680760575703</v>
+        <v>0.404176569516019</v>
       </c>
     </row>
     <row r="11">
@@ -2998,19 +2998,19 @@
         <v>253678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>225622</v>
+        <v>223362</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>284141</v>
+        <v>284743</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2424113642834755</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2156012477346275</v>
+        <v>0.2134417429597736</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2715211847212063</v>
+        <v>0.2720964018683105</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>250</v>
@@ -3019,19 +3019,19 @@
         <v>165430</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>144852</v>
+        <v>145458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>187580</v>
+        <v>186918</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1579073315359656</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.138264904725223</v>
+        <v>0.1388435658925868</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1790501401700344</v>
+        <v>0.1784180004943858</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>476</v>
@@ -3040,19 +3040,19 @@
         <v>419109</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>379781</v>
+        <v>381223</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>461046</v>
+        <v>456339</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2001358956160878</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1813558890139675</v>
+        <v>0.1820444122509635</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2201621320093113</v>
+        <v>0.2179145189500895</v>
       </c>
     </row>
     <row r="13">
@@ -3069,19 +3069,19 @@
         <v>526318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>492520</v>
+        <v>487307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>561683</v>
+        <v>558498</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5029413801675889</v>
+        <v>0.502941380167589</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4706446513954264</v>
+        <v>0.4656634349308736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5367362216811464</v>
+        <v>0.533692442063889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>767</v>
@@ -3090,19 +3090,19 @@
         <v>538239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>509842</v>
+        <v>508807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>567384</v>
+        <v>567435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5137627451707983</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4866564468194733</v>
+        <v>0.4856685180854738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5415821289750481</v>
+        <v>0.5416302620518462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1295</v>
@@ -3111,19 +3111,19 @@
         <v>1064557</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1016613</v>
+        <v>1022619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1110044</v>
+        <v>1107618</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.508355065908463</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.485460330997418</v>
+        <v>0.4883283208811209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5300765015001369</v>
+        <v>0.5289179579563361</v>
       </c>
     </row>
     <row r="14">
@@ -3140,19 +3140,19 @@
         <v>266483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237797</v>
+        <v>239981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>298428</v>
+        <v>297722</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2546472555489355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2272354699523453</v>
+        <v>0.2293219398499936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.285173579568875</v>
+        <v>0.2844989338349299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>499</v>
@@ -3161,19 +3161,19 @@
         <v>343972</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320557</v>
+        <v>318020</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>371203</v>
+        <v>370237</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.328329923293236</v>
+        <v>0.3283299232932361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3059794901767561</v>
+        <v>0.3035577272485198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3543222849022005</v>
+        <v>0.3533998900631452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>774</v>
@@ -3182,19 +3182,19 @@
         <v>610455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>570208</v>
+        <v>570614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>652980</v>
+        <v>646594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2915090384754492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2722900140214201</v>
+        <v>0.2724837800579577</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3118159525158549</v>
+        <v>0.3087662481121914</v>
       </c>
     </row>
     <row r="15">
@@ -3286,19 +3286,19 @@
         <v>410825</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>376735</v>
+        <v>378787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>446164</v>
+        <v>445899</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4209574988532542</v>
+        <v>0.4209574988532543</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3860272459903288</v>
+        <v>0.3881297791954773</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4571684098832189</v>
+        <v>0.4568964598887837</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>461</v>
@@ -3307,19 +3307,19 @@
         <v>307115</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282194</v>
+        <v>280950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>335184</v>
+        <v>334406</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3373613800943548</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3099860723273138</v>
+        <v>0.3086189877635265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.368194134655527</v>
+        <v>0.3673400570364224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>845</v>
@@ -3328,19 +3328,19 @@
         <v>717940</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>676510</v>
+        <v>675283</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>767365</v>
+        <v>764130</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3806127236294394</v>
+        <v>0.3806127236294393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3586487169532902</v>
+        <v>0.3579981541304517</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4068153311961004</v>
+        <v>0.4051003294535491</v>
       </c>
     </row>
     <row r="17">
@@ -3357,19 +3357,19 @@
         <v>413212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>379629</v>
+        <v>379981</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>447960</v>
+        <v>446043</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.423403260264003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3889923233946069</v>
+        <v>0.389352714263954</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4590085493725932</v>
+        <v>0.4570443156377275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>552</v>
@@ -3378,19 +3378,19 @@
         <v>370810</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>344222</v>
+        <v>345386</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>397408</v>
+        <v>397093</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4073290948967229</v>
+        <v>0.407329094896723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3781226699676896</v>
+        <v>0.3794013650426311</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4365471203240927</v>
+        <v>0.4362007261843781</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>958</v>
@@ -3399,19 +3399,19 @@
         <v>784022</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>739087</v>
+        <v>742164</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>826118</v>
+        <v>828750</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4156456203366792</v>
+        <v>0.4156456203366791</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3918236659662996</v>
+        <v>0.3934550552061368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4379627079467753</v>
+        <v>0.4393581406084661</v>
       </c>
     </row>
     <row r="18">
@@ -3428,19 +3428,19 @@
         <v>151893</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131431</v>
+        <v>129112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>176696</v>
+        <v>176252</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1556392408827428</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1346730873526235</v>
+        <v>0.1322969352720617</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1810546080633812</v>
+        <v>0.1805992184144769</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>311</v>
@@ -3449,19 +3449,19 @@
         <v>232420</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>209185</v>
+        <v>208932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>257940</v>
+        <v>258961</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2553095250089222</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2297869852446859</v>
+        <v>0.229508896338997</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2833426110356544</v>
+        <v>0.2844641685286665</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>468</v>
@@ -3470,19 +3470,19 @@
         <v>384313</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>350026</v>
+        <v>347744</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>420823</v>
+        <v>420856</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2037416560338815</v>
+        <v>0.2037416560338816</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1855650261526687</v>
+        <v>0.1843547663532586</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2230972851950181</v>
+        <v>0.2231148832688964</v>
       </c>
     </row>
     <row r="19">
@@ -3574,19 +3574,19 @@
         <v>942330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>882857</v>
+        <v>879228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1003561</v>
+        <v>1003729</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2706847395427335</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2536009888477535</v>
+        <v>0.2525586136078688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2882733159474467</v>
+        <v>0.2883216151850533</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>959</v>
@@ -3595,19 +3595,19 @@
         <v>653653</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>614987</v>
+        <v>611537</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>701949</v>
+        <v>695166</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.176786355768364</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1663287484844984</v>
+        <v>0.1653958568199354</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1898484999937692</v>
+        <v>0.1880139802200414</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1802</v>
@@ -3616,19 +3616,19 @@
         <v>1595983</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1520462</v>
+        <v>1523527</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1666135</v>
+        <v>1672367</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2223220313923502</v>
+        <v>0.2223220313923503</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2118018967955414</v>
+        <v>0.2122288321632959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2320942483694901</v>
+        <v>0.2329624112913733</v>
       </c>
     </row>
     <row r="21">
@@ -3645,19 +3645,19 @@
         <v>1594847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1532682</v>
+        <v>1539635</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1664313</v>
+        <v>1665355</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4581204128711023</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4402635561599409</v>
+        <v>0.4422606019057273</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4780745147127312</v>
+        <v>0.4783736751806111</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2411</v>
@@ -3666,19 +3666,19 @@
         <v>1712196</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1660001</v>
+        <v>1656636</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1767343</v>
+        <v>1767158</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4630790264307953</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4489625390151508</v>
+        <v>0.4480523851304123</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4779940022125588</v>
+        <v>0.4779441424369215</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3963</v>
@@ -3687,19 +3687,19 @@
         <v>3307044</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3220600</v>
+        <v>3223382</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3386020</v>
+        <v>3395799</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4606743650349033</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4486326709074166</v>
+        <v>0.4490202233309888</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4716758510815804</v>
+        <v>0.4730380678090869</v>
       </c>
     </row>
     <row r="22">
@@ -3716,19 +3716,19 @@
         <v>944106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>883282</v>
+        <v>886117</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1000463</v>
+        <v>996870</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2711948475861642</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2537230525880129</v>
+        <v>0.2545375025191278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2873831926539677</v>
+        <v>0.2863511347142541</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1938</v>
@@ -3737,19 +3737,19 @@
         <v>1331567</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1273306</v>
+        <v>1280173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1381128</v>
+        <v>1384587</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3601346178008406</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3443772854019132</v>
+        <v>0.3462345884279351</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3735387148779956</v>
+        <v>0.3744741387323211</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2884</v>
@@ -3758,19 +3758,19 @@
         <v>2275674</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2193582</v>
+        <v>2199461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2360490</v>
+        <v>2358851</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3170036035727464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.305568076754334</v>
+        <v>0.3063870204717219</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3288185933371816</v>
+        <v>0.3285902850570714</v>
       </c>
     </row>
     <row r="23">
